--- a/234-validateur-fhir-url-mise-à-jour-du-regex-sur-le-validateur-du-flux-11-et-création-du-validateur-de-flux-51/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/234-validateur-fhir-url-mise-à-jour-du-regex-sur-le-validateur-du-flux-11-et-création-du-validateur-de-flux-51/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T09:31:55+00:00</t>
+    <t>2024-10-17T09:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
